--- a/pred_ohlcv/54_21/2020-01-15 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 ETZ ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>-711216.6548000001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-711176.6548000001</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-656414.7165000001</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-685100.3149000001</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-709518.5062000001</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-709321.3603000001</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-713321.3603000001</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-836747.5269000001</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-863085.3962000001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-862906.5241</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-889272.098</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-839272.098</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-841272.098</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-908034.7389</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-903034.7389</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-903256.5165</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-903256.5165</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-903194.4125000001</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1017715.7723</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1012512.5842</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1012633.2036</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1161524.8571</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1173601.1312</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1192607.4235</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-2937682.7482</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-3134457.8155</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-3133249.65</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-3251087.3238</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-3340659.1308</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-3549416.398000001</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-3920162.8551</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-3919782.8617</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-3875835.2938</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-3918407.1352</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-3930017.3085</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-3896273.6748</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-3896273.6748</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-3896165.637</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-3889165.637</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-5130960.580199999</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-5130960.580199999</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-5130960.580199999</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-5161299.979399999</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-5161997.864399998</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-5161997.864399998</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-5161841.147099999</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-5217200.464199998</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-5217200.464199998</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-5030744.367399998</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-5007075.822099998</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-5007075.822099998</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-5104233.887199997</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-5120659.714499997</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-5082685.183399997</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-5103936.953399996</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-5103370.272599996</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-5104133.474999996</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-5105248.850399996</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-5114883.562499996</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-5114533.594399996</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-5108473.745899996</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 ETZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 ETZ ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>-711216.6548000001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-656414.7165000001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-685100.3149000001</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-709518.5062000001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-709321.3603000001</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-713321.3603000001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-836747.5269000001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-863085.3962000001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-862906.5241</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-889272.098</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-839272.098</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-841272.098</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-908034.7389</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-903034.7389</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-903256.5165</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-903194.4125000001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1017715.7723</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1012512.5842</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1012512.5842</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1012633.2036</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1079868.3985</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1179295.2975</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1161651.1187</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1161524.8571</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-1173601.1312</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1192607.4235</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-5170816.213099998</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-5161821.523099998</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-5104233.887199997</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-5120659.714499997</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-5082685.183399997</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-5103936.953399996</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-5103370.272599996</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-5104133.474999996</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-5114883.562499996</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-5114883.562499996</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-5114983.562499996</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-5119583.562499996</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-5119246.563499996</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-5119246.563499996</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-5114533.594399996</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-5108473.745899996</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-5102588.858599996</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-5102311.564099996</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-5089031.208799996</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-5107317.042899996</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-5107317.042899996</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-4905258.802899996</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-4934791.409399996</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
